--- a/data/trans_dic/P19C02-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3656312277403381</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4264931817562928</v>
+        <v>0.4264931817562929</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2265385839317932</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.182247123211506</v>
+        <v>0.1809772345568132</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.210130275680368</v>
+        <v>0.2082370018803271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2987851066827596</v>
+        <v>0.2970820039140293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2706822504503485</v>
+        <v>0.2650934216059629</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1964884329827928</v>
+        <v>0.1961229133984359</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.235998549340418</v>
+        <v>0.235402393709778</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3338575266238451</v>
+        <v>0.3352162086701816</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3904274664477098</v>
+        <v>0.3825258051287658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1995602426143166</v>
+        <v>0.2018452117358076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2340717660089652</v>
+        <v>0.2316772995438511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3263305969173707</v>
+        <v>0.3240542556075947</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3459310562314047</v>
+        <v>0.3490815980101359</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2676868038968818</v>
+        <v>0.2687259100287203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2713203684917875</v>
+        <v>0.2695451168152729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3632137350044189</v>
+        <v>0.3660320193859616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3707562787459723</v>
+        <v>0.3674442758842391</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2597757425304056</v>
+        <v>0.2627910102888297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2994239415227746</v>
+        <v>0.2981494325237727</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3960788131298984</v>
+        <v>0.399653306425815</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4654222149185316</v>
+        <v>0.4620358406719982</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.251838874044146</v>
+        <v>0.2547696529693597</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2739205570392215</v>
+        <v>0.2747898252705853</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3726590557110511</v>
+        <v>0.3713701634118722</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4072737247944858</v>
+        <v>0.40916710235981</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3935310272851784</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4761555609327484</v>
+        <v>0.4761555609327485</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2763227975944267</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2326625403289102</v>
+        <v>0.2320704352783273</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2771043170264484</v>
+        <v>0.2741994668463311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3194520281661894</v>
+        <v>0.3138449517180787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4104706573767664</v>
+        <v>0.4123549212442292</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2585747592801233</v>
+        <v>0.2589489671590849</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2749412419394746</v>
+        <v>0.2740264119773814</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3599467602151052</v>
+        <v>0.3590529788695013</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4463695986514231</v>
+        <v>0.4497925239837579</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2527980945744046</v>
+        <v>0.2553115666918914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2839689848586233</v>
+        <v>0.282774585213908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3475157606508876</v>
+        <v>0.3495503184505344</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.440249263875523</v>
+        <v>0.4411471037098312</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2935968237738475</v>
+        <v>0.2974855419346654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.341812202062317</v>
+        <v>0.3415397111462451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.391444617846908</v>
+        <v>0.3889562478452173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.485137770514622</v>
+        <v>0.4816047935976014</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3235975198727104</v>
+        <v>0.3197891771718406</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3334090821729958</v>
+        <v>0.3330591334688518</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4295949795896812</v>
+        <v>0.4269206649728781</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5007192639458091</v>
+        <v>0.5029001399872007</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2977324534036863</v>
+        <v>0.2992799815359327</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3274709344889465</v>
+        <v>0.328436853373665</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3967435937909198</v>
+        <v>0.3989647709006018</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4855717662518413</v>
+        <v>0.4863555476142818</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3572622478271612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5089585774092955</v>
+        <v>0.5089585774092954</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3141014295692967</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.269619808866031</v>
+        <v>0.2658215398976739</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2817560867150072</v>
+        <v>0.2835525835879003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3233904159767577</v>
+        <v>0.3212560550419308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4762636400813183</v>
+        <v>0.4704569034348798</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2809504559036715</v>
+        <v>0.2805724262663807</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3017346563947552</v>
+        <v>0.3047074233671704</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3267918171903587</v>
+        <v>0.3277365749666467</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4840831794914802</v>
+        <v>0.4866581750961436</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2829925977970728</v>
+        <v>0.2836318870775268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3033869464608359</v>
+        <v>0.3017182714273978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3358095824069093</v>
+        <v>0.3337762434974091</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4911179034069437</v>
+        <v>0.4884815653862589</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3317644436030351</v>
+        <v>0.3283223606984758</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3523170801009504</v>
+        <v>0.3489021034978788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3972822497962664</v>
+        <v>0.3944478593700355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5435057479422285</v>
+        <v>0.5409744489221894</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3452435142617366</v>
+        <v>0.3463887749681387</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3692248555731183</v>
+        <v>0.3684685849535864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3974088677151933</v>
+        <v>0.4027862133318597</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5403390311727277</v>
+        <v>0.5415810240829715</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3284288932304132</v>
+        <v>0.3282268694915703</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.350430011052779</v>
+        <v>0.3479354058045768</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.390103519793103</v>
+        <v>0.3871114021129455</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5342955090265975</v>
+        <v>0.5307027127743184</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3710211807390536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5371983295866534</v>
+        <v>0.5371983295866533</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4043046795772288</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3424398164006059</v>
+        <v>0.3462840097658439</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3031599991175516</v>
+        <v>0.3051433854380912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3219728074989475</v>
+        <v>0.322138944656808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5010061933211337</v>
+        <v>0.5037424755755188</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3490103553409052</v>
+        <v>0.3417101168789005</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3502939764402327</v>
+        <v>0.3488804342680514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3007010175777262</v>
+        <v>0.3060048853283012</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.484276818527455</v>
+        <v>0.4845228271458999</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3621646695591565</v>
+        <v>0.3602951668323294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3403095885218764</v>
+        <v>0.3387441539736131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3254629982371037</v>
+        <v>0.3256168177645715</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5032059458171861</v>
+        <v>0.5044221888882017</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4517588458123061</v>
+        <v>0.4475909851833098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3984251789497586</v>
+        <v>0.3944683307879449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4213052172804531</v>
+        <v>0.4209267096062957</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5749304912161548</v>
+        <v>0.5756407560305875</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4624364505379628</v>
+        <v>0.4597236472474107</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4566569757655229</v>
+        <v>0.4530086910555824</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3980598674060982</v>
+        <v>0.3947912291891219</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5443599119038812</v>
+        <v>0.5461405110753633</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4391559802894262</v>
+        <v>0.4396232855929329</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4103988704293303</v>
+        <v>0.4114682655521238</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3923196866225259</v>
+        <v>0.3915581211199055</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5498408030399449</v>
+        <v>0.5490522784164563</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2681974858265775</v>
+        <v>0.2692476466393958</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2791254861433314</v>
+        <v>0.2798336232990413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3302943598432966</v>
+        <v>0.3292164573014589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4543616162253735</v>
+        <v>0.4557337144810018</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2756924302541353</v>
+        <v>0.2757013836881072</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2967914501866341</v>
+        <v>0.2961103457440357</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3522531069453306</v>
+        <v>0.3528208208334672</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4744663740648944</v>
+        <v>0.4719303305062849</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2763657053222776</v>
+        <v>0.2772820082853872</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2932143921011749</v>
+        <v>0.2934523732550234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3489655568349491</v>
+        <v>0.3484308407220351</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4691030231702142</v>
+        <v>0.4696773649835211</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3065185004013296</v>
+        <v>0.3064787975200506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3146734247665426</v>
+        <v>0.3153253155314512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3676487546311745</v>
+        <v>0.367432627882449</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.493741719155427</v>
+        <v>0.4935352062296616</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.309940966905852</v>
+        <v>0.3107253865451133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.330624761669238</v>
+        <v>0.3305105443215109</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3906360180959879</v>
+        <v>0.3891114912340085</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5049583363792403</v>
+        <v>0.501137599723783</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3030180490437882</v>
+        <v>0.3028533840784111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3177804494009394</v>
+        <v>0.317019732607829</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3740535130778106</v>
+        <v>0.3743453972638578</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4929159336583928</v>
+        <v>0.4938599939069631</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72154</v>
+        <v>71652</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>173219</v>
+        <v>171659</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>234356</v>
+        <v>233020</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>122425</v>
+        <v>119898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>143556</v>
+        <v>143289</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>223601</v>
+        <v>223036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>308055</v>
+        <v>309309</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>230037</v>
+        <v>225382</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>224809</v>
+        <v>227383</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>414731</v>
+        <v>410489</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>557071</v>
+        <v>553186</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>360279</v>
+        <v>363560</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>105981</v>
+        <v>106393</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223661</v>
+        <v>222198</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>284891</v>
+        <v>287102</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>167687</v>
+        <v>166189</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189794</v>
+        <v>191997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>283695</v>
+        <v>282487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>365467</v>
+        <v>368766</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>274224</v>
+        <v>272228</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>283702</v>
+        <v>287003</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>485336</v>
+        <v>486876</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>636158</v>
+        <v>633957</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>424166</v>
+        <v>426138</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>185926</v>
+        <v>185453</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>232982</v>
+        <v>230540</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>228190</v>
+        <v>224185</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>378112</v>
+        <v>379848</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>219774</v>
+        <v>220092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>265249</v>
+        <v>264366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>303321</v>
+        <v>302567</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>485261</v>
+        <v>488982</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>416882</v>
+        <v>421026</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>512712</v>
+        <v>510555</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>541082</v>
+        <v>544249</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>884151</v>
+        <v>885954</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>234621</v>
+        <v>237728</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>287386</v>
+        <v>287157</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>279616</v>
+        <v>277838</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>446893</v>
+        <v>443639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>275040</v>
+        <v>271803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>321655</v>
+        <v>321318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>362012</v>
+        <v>359758</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>544346</v>
+        <v>546717</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>490981</v>
+        <v>493533</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>591256</v>
+        <v>593000</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>617729</v>
+        <v>621188</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>975172</v>
+        <v>976746</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>240377</v>
+        <v>236991</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>219427</v>
+        <v>220826</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>231577</v>
+        <v>230049</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>488131</v>
+        <v>482180</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>232522</v>
+        <v>232209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>243228</v>
+        <v>245624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>215346</v>
+        <v>215968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>498656</v>
+        <v>501308</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>486512</v>
+        <v>487611</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>480833</v>
+        <v>478188</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>461758</v>
+        <v>458962</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1009258</v>
+        <v>1003840</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>295782</v>
+        <v>292713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>274379</v>
+        <v>271720</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>284490</v>
+        <v>282461</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>557049</v>
+        <v>554454</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>285733</v>
+        <v>286681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>297631</v>
+        <v>297022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>261880</v>
+        <v>265424</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>556605</v>
+        <v>557884</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>564625</v>
+        <v>564277</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>555390</v>
+        <v>551437</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>536416</v>
+        <v>532301</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1097989</v>
+        <v>1090606</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>116417</v>
+        <v>117723</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>137388</v>
+        <v>138287</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>138369</v>
+        <v>138441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>475969</v>
+        <v>478569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>96917</v>
+        <v>94890</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>145532</v>
+        <v>144945</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>129708</v>
+        <v>131996</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>426525</v>
+        <v>426742</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>223692</v>
+        <v>222537</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>295608</v>
+        <v>294248</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>280258</v>
+        <v>280391</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>921256</v>
+        <v>923483</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>153581</v>
+        <v>152164</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>180561</v>
+        <v>178768</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>181058</v>
+        <v>180895</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>546199</v>
+        <v>546874</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>128414</v>
+        <v>127661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>189721</v>
+        <v>188206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171704</v>
+        <v>170294</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>479443</v>
+        <v>481011</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>271246</v>
+        <v>271535</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>356490</v>
+        <v>357419</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>337829</v>
+        <v>337173</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1006634</v>
+        <v>1005191</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>650793</v>
+        <v>653341</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>808651</v>
+        <v>810702</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>873472</v>
+        <v>870621</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1521383</v>
+        <v>1525977</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>740473</v>
+        <v>740498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>930076</v>
+        <v>927942</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1005935</v>
+        <v>1007556</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1701992</v>
+        <v>1692895</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1412895</v>
+        <v>1417580</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1768334</v>
+        <v>1769770</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1919395</v>
+        <v>1916454</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3253496</v>
+        <v>3257480</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>743780</v>
+        <v>743684</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>911636</v>
+        <v>913525</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>972257</v>
+        <v>971685</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1653243</v>
+        <v>1652552</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>832461</v>
+        <v>834567</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1036102</v>
+        <v>1035744</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1115546</v>
+        <v>1111192</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1811372</v>
+        <v>1797666</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1549153</v>
+        <v>1548311</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1916489</v>
+        <v>1911901</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2057385</v>
+        <v>2058991</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3418652</v>
+        <v>3425200</v>
       </c>
     </row>
     <row r="24">
